--- a/Bid_Sheets/2019-03-12_Bid_Sheet.xlsx
+++ b/Bid_Sheets/2019-03-12_Bid_Sheet.xlsx
@@ -371,7 +371,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Some info
+          <t>
 </t>
         </is>
       </c>
@@ -394,7 +394,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>QTY 50 at $5000
+          <t>
 </t>
         </is>
       </c>
@@ -498,6 +498,12 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>
+</t>
         </is>
       </c>
     </row>
